--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/CreditRating.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/CreditRating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E46C1-F73F-4181-9D25-87C2B08CF1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE7A86F-F968-455C-AEE7-E63D5D4D93E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>建檔日期時間</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
 2:個人戶
 (依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -517,11 +517,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -530,9 +530,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,10 +539,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +563,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,35 +578,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -642,9 +618,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -682,9 +658,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,26 +693,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,26 +728,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -965,7 +907,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -973,442 +915,442 @@
     <col min="1" max="1" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="72.88671875" style="4"/>
+    <col min="7" max="7" width="42" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="18">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="E10" s="18">
+        <v>7</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>7</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="18">
+        <v>8</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>8</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>9</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="18">
+        <v>8</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>12</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>14</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="16">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="19">
-        <v>7</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="19">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="19">
-        <v>3</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="19">
-        <v>8</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="19">
-        <v>8</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="30">
-        <v>6</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="30">
-        <v>6</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:G14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1445,13 +1387,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
